--- a/Input/Paraffin_flut_20C.xlsx
+++ b/Input/Paraffin_flut_20C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd1a17303fcb2a19/Documentos/RWTH/Semester 4 (SS25)/MA/Modelle/(Model-1)_04_Separator Model_Henschke/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{3D94B314-A0E8-4B85-9ECF-1D48EFF7D7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71467DE-57D5-4E58-AE07-B4DC783F54F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39268EDE-3DFA-40CC-B01C-A2DE62F4CBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSim" sheetId="1" r:id="rId1"/>
@@ -674,10 +674,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,7 +1045,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,10 +1132,10 @@
         <v>1.4189999999999999E-3</v>
       </c>
       <c r="J2">
-        <v>9.75E-3</v>
+        <v>9.8219999999999991E-3</v>
       </c>
       <c r="K2">
-        <v>0.2495</v>
+        <v>0.24157000000000001</v>
       </c>
       <c r="L2">
         <v>0.15</v>
